--- a/config/excel/SkillTrack.xlsx
+++ b/config/excel/SkillTrack.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\tags\tag_20210525\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E706485D-A129-4F42-9201-32D9EA44F865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7D45EB-4F36-49FD-A7BA-88527A58C897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="329">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1102,34 +1102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CM_vcam01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM_vcam02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM_vcam03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM_vcam04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM_vcam05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM_vcam06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM_vcam07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CM vcam3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1285,14 +1257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bak1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>black_whole_xuli</t>
   </si>
   <si>
@@ -1301,9 +1265,6 @@
   <si>
     <t>梅林-临时奥义</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛基-技能1</t>
   </si>
   <si>
     <t>Fx_luoji_skill_gua</t>
@@ -1373,12 +1334,43 @@
 8：技能主目标挂特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Fx_act_effect_julong_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fazhen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_act_effect_julong_01</t>
+  </si>
+  <si>
+    <t>洛基-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM vcam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM vcam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM_vcam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM_vcam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1424,15 +1416,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1601,7 +1584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1676,9 +1659,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2234,8 +2214,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:AC240" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="C1:AC240" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:AC242" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="C1:AC242" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TrackID" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{A204DA96-999F-43CC-9B0D-A949BE058672}" name="备注" dataDxfId="25"/>
@@ -2532,13 +2512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC240"/>
+  <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="I162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L123" sqref="L123"/>
+      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2590,8 +2570,8 @@
       <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>294</v>
+      <c r="I1" s="27" t="s">
+        <v>287</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>16</v>
@@ -2664,7 +2644,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="14" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>18</v>
@@ -2672,8 +2652,8 @@
       <c r="H2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>288</v>
+      <c r="I2" s="28" t="s">
+        <v>281</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>144</v>
@@ -2685,7 +2665,7 @@
         <v>142</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>132</v>
@@ -2756,7 +2736,7 @@
       <c r="H3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -2840,7 +2820,7 @@
       <c r="H4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="29" t="s">
         <v>39</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -2914,7 +2894,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="30"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -2956,7 +2936,7 @@
       <c r="H6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -3128,7 +3108,7 @@
         <v>1002</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -3144,7 +3124,7 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -3189,7 +3169,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="Y11" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AA11" s="1">
         <v>1000</v>
@@ -3216,7 +3196,7 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -3251,7 +3231,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -3343,7 +3323,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="Y15" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AA15" s="1">
         <v>1000</v>
@@ -3353,8 +3333,8 @@
       <c r="C16" s="2">
         <v>1005</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>298</v>
+      <c r="D16" s="30" t="s">
+        <v>291</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -3405,7 +3385,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3501,7 +3481,7 @@
         <v>69</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>70</v>
@@ -3546,7 +3526,7 @@
         <v>69</v>
       </c>
       <c r="X20" s="15" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>70</v>
@@ -3591,7 +3571,7 @@
         <v>69</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>70</v>
@@ -3626,14 +3606,14 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="S22" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -3664,14 +3644,14 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="S23" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -4673,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>0.5</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -4684,7 +4664,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
@@ -4708,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="G53" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H53" s="2">
-        <v>0.76600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -4722,7 +4702,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="S53" s="2">
         <v>0</v>
@@ -4746,10 +4726,10 @@
         <v>6</v>
       </c>
       <c r="G54" s="2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H54" s="2">
-        <v>2.0630000000000002</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -4760,14 +4740,14 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="S54" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
@@ -4793,7 +4773,7 @@
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Y55" s="2"/>
     </row>
@@ -4817,7 +4797,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="15" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -4854,7 +4834,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="15" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
@@ -4890,7 +4870,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="15" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
@@ -4926,7 +4906,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
@@ -4967,7 +4947,7 @@
         <v>23</v>
       </c>
       <c r="X60" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Y60" s="2" t="s">
         <v>50</v>
@@ -5001,7 +4981,7 @@
         <v>23</v>
       </c>
       <c r="X61" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Y61" s="5" t="s">
         <v>50</v>
@@ -5034,8 +5014,8 @@
       <c r="W62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X62" s="27" t="s">
-        <v>279</v>
+      <c r="X62" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="Y62" s="5" t="s">
         <v>50</v>
@@ -5081,7 +5061,7 @@
         <v>23</v>
       </c>
       <c r="X63" s="15" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Y63" s="5" t="s">
         <v>50</v>
@@ -5105,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>0.4</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -5116,7 +5096,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="S64" s="2">
         <v>0</v>
@@ -5140,10 +5120,10 @@
         <v>6</v>
       </c>
       <c r="G65" s="2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H65" s="2">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -5157,11 +5137,11 @@
         <v>181</v>
       </c>
       <c r="S65" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
@@ -5171,7 +5151,7 @@
         <v>2005</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -5187,7 +5167,7 @@
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -5222,7 +5202,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -5257,7 +5237,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -5292,7 +5272,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -5327,7 +5307,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -5378,7 +5358,7 @@
         <v>69</v>
       </c>
       <c r="X71" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Y71" s="1" t="s">
         <v>70</v>
@@ -5423,7 +5403,7 @@
         <v>69</v>
       </c>
       <c r="X72" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Y72" s="1" t="s">
         <v>70</v>
@@ -5468,7 +5448,7 @@
         <v>69</v>
       </c>
       <c r="X73" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Y73" s="1" t="s">
         <v>70</v>
@@ -5513,7 +5493,7 @@
         <v>69</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Y74" s="1" t="s">
         <v>70</v>
@@ -5537,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="2">
-        <v>0.4</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -5548,7 +5528,7 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="S75" s="2">
         <v>0</v>
@@ -5572,10 +5552,10 @@
         <v>6</v>
       </c>
       <c r="G76" s="2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H76" s="2">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -5586,14 +5566,14 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="S76" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T76" s="2"/>
       <c r="U76" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
@@ -6621,7 +6601,7 @@
         <v>3002</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E105" s="2">
         <v>1</v>
@@ -7029,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="2">
-        <v>0.48330000000000001</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -7040,7 +7020,7 @@
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="2" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="S115" s="2">
         <v>0</v>
@@ -7064,10 +7044,10 @@
         <v>6</v>
       </c>
       <c r="G116" s="2">
-        <v>6.6600000000000006E-2</v>
+        <v>2.1</v>
       </c>
       <c r="H116" s="2">
-        <v>0.7</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -7078,148 +7058,142 @@
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
       <c r="R116" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="S116" s="26">
-        <v>0</v>
+        <v>328</v>
+      </c>
+      <c r="S116" s="25">
+        <v>9</v>
       </c>
       <c r="T116" s="2"/>
       <c r="U116" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
     <row r="117" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C117" s="2">
-        <v>3002</v>
-      </c>
-      <c r="D117" s="2"/>
+        <v>3003</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E117" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F117" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G117" s="2">
-        <v>0.5333</v>
+        <v>0</v>
       </c>
       <c r="H117" s="2">
-        <v>0.58333000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
+      <c r="J117" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
-      <c r="R117" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="S117" s="26">
-        <v>0</v>
-      </c>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
       <c r="T117" s="2"/>
-      <c r="U117" s="2">
-        <v>0</v>
-      </c>
+      <c r="U117" s="2"/>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
     <row r="118" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C118" s="2">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F118" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G118" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="H118" s="25">
-        <v>0.5</v>
+        <v>1.2665999999999999</v>
+      </c>
+      <c r="H118" s="2">
+        <v>2.0666000000000002</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
+      <c r="K118" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
-      <c r="R118" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="S118" s="26">
-        <v>0</v>
-      </c>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
       <c r="T118" s="2"/>
-      <c r="U118" s="2">
-        <v>0</v>
-      </c>
+      <c r="U118" s="2"/>
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
     <row r="119" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C119" s="2">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F119" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G119" s="2">
-        <v>1</v>
+        <v>2.3666</v>
       </c>
       <c r="H119" s="2">
-        <v>1.1666000000000001</v>
+        <v>3.5666000000000002</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
+      <c r="K119" s="15" t="s">
+        <v>318</v>
+      </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
-      <c r="R119" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="S119" s="26">
-        <v>0</v>
-      </c>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
       <c r="T119" s="2"/>
-      <c r="U119" s="2">
-        <v>0</v>
-      </c>
+      <c r="U119" s="2"/>
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
+      <c r="Y119" s="5"/>
+      <c r="AA119" s="5"/>
     </row>
     <row r="120" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C120" s="2">
-        <v>3002</v>
+      <c r="C120" s="4">
+        <v>3003</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F120" s="2">
-        <v>6</v>
-      </c>
-      <c r="G120" s="2">
-        <v>1.6</v>
+        <v>3</v>
+      </c>
+      <c r="G120" s="4">
+        <v>4.0332999999999997</v>
       </c>
       <c r="H120" s="2">
-        <v>1.7</v>
+        <v>0.76659999999999995</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -7229,149 +7203,161 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
-      <c r="R120" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="S120" s="26">
-        <v>0</v>
-      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
       <c r="T120" s="2"/>
-      <c r="U120" s="2">
-        <v>0</v>
-      </c>
+      <c r="U120" s="2"/>
       <c r="V120" s="2"/>
-      <c r="W120" s="2"/>
+      <c r="W120" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X120" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y120" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z120" s="5"/>
+      <c r="AA120" s="5">
+        <v>1000</v>
+      </c>
     </row>
     <row r="121" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C121" s="2">
-        <v>3002</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2">
-        <v>17</v>
-      </c>
-      <c r="F121" s="2">
+      <c r="C121" s="4">
+        <v>3003</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4">
+        <v>5</v>
+      </c>
+      <c r="F121" s="4">
+        <v>3</v>
+      </c>
+      <c r="G121" s="4">
+        <v>4.0332999999999997</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+    </row>
+    <row r="122" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C122" s="4">
+        <v>3003</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2">
         <v>6</v>
       </c>
-      <c r="G121" s="2">
-        <v>2</v>
-      </c>
-      <c r="H121" s="2">
-        <v>1.45</v>
-      </c>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S121" s="26">
-        <v>0</v>
-      </c>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2">
-        <v>0</v>
-      </c>
-      <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-    </row>
-    <row r="122" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C122" s="2">
-        <v>3003</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
       <c r="F122" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
       </c>
       <c r="H122" s="2">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="I122" s="2"/>
-      <c r="J122" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="J122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
-      <c r="S122" s="2"/>
+      <c r="R122" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="S122" s="2">
+        <v>0</v>
+      </c>
       <c r="T122" s="2"/>
-      <c r="U122" s="2"/>
+      <c r="U122" s="2">
+        <v>0</v>
+      </c>
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
     <row r="123" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C123" s="2">
+      <c r="C123" s="4">
         <v>3003</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F123" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G123" s="2">
-        <v>1.2665999999999999</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="H123" s="2">
-        <v>2.0666000000000002</v>
+        <v>8</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
-      <c r="K123" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
+      <c r="R123" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S123" s="2">
+        <v>9</v>
+      </c>
       <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
+      <c r="U123" s="2">
+        <v>9</v>
+      </c>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
     <row r="124" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C124" s="2">
-        <v>3003</v>
-      </c>
-      <c r="D124" s="2"/>
+        <v>3004</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="E124" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F124" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G124" s="2">
-        <v>2.3666</v>
+        <v>0</v>
       </c>
       <c r="H124" s="2">
-        <v>3.5666000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="15" t="s">
-        <v>328</v>
+      <c r="J124" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
@@ -7385,80 +7371,61 @@
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
-      <c r="Y124" s="5"/>
-      <c r="AA124" s="5"/>
     </row>
     <row r="125" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C125" s="4">
-        <v>3003</v>
-      </c>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4">
-        <v>4</v>
-      </c>
-      <c r="F125" s="4">
-        <v>3</v>
-      </c>
-      <c r="G125" s="4">
-        <v>5.3666</v>
-      </c>
-      <c r="H125" s="4">
-        <v>0.63339999999999996</v>
-      </c>
-      <c r="I125" s="4">
+      <c r="C125" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2">
+        <v>2</v>
+      </c>
+      <c r="F125" s="2">
         <v>1</v>
       </c>
-      <c r="J125" s="4"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-      <c r="W125" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="X125" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y125" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z125" s="5"/>
-      <c r="AA125" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AB125" s="5"/>
-      <c r="AC125" s="5"/>
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
+        <v>5.1660000000000004</v>
+      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
     </row>
     <row r="126" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C126" s="2">
         <v>3004</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="D126" s="2"/>
       <c r="E126" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" s="2">
-        <v>0</v>
+        <v>5.1669999999999998</v>
       </c>
       <c r="H126" s="2">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -7479,31 +7446,35 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F127" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G127" s="2">
         <v>0</v>
       </c>
       <c r="H127" s="2">
-        <v>5.1660000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="I127" s="2"/>
-      <c r="J127" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="J127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
+      <c r="R127" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S127" s="2">
+        <v>1</v>
+      </c>
       <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
+      <c r="U127" s="2">
+        <v>1</v>
+      </c>
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
@@ -7513,20 +7484,21 @@
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F128" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" s="2">
-        <v>5.1669999999999998</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="H128" s="2">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="I128" s="2"/>
-      <c r="J128" s="2" t="s">
-        <v>167</v>
+      <c r="J128" s="2"/>
+      <c r="K128" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
@@ -7547,35 +7519,32 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F129" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G129" s="2">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="H129" s="2">
-        <v>6.7</v>
+        <v>6.55</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
+      <c r="K129" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
-      <c r="R129" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="S129" s="2">
-        <v>1</v>
-      </c>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
       <c r="T129" s="2"/>
-      <c r="U129" s="2">
-        <v>1</v>
-      </c>
+      <c r="U129" s="2"/>
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
@@ -7585,21 +7554,21 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F130" s="2">
         <v>2</v>
       </c>
       <c r="G130" s="2">
-        <v>0.16700000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H130" s="2">
-        <v>6.6</v>
+        <v>6.2670000000000003</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
@@ -7620,21 +7589,21 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F131" s="2">
         <v>2</v>
       </c>
       <c r="G131" s="2">
-        <v>0.216</v>
+        <v>2.15</v>
       </c>
       <c r="H131" s="2">
-        <v>6.55</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -7655,21 +7624,21 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F132" s="2">
         <v>2</v>
       </c>
       <c r="G132" s="2">
-        <v>0.5</v>
+        <v>2.15</v>
       </c>
       <c r="H132" s="2">
-        <v>6.2670000000000003</v>
+        <v>1.583</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -7685,39 +7654,45 @@
       <c r="W132" s="2"/>
     </row>
     <row r="133" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C133" s="2">
+      <c r="C133" s="4">
         <v>3004</v>
       </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2">
-        <v>8</v>
-      </c>
-      <c r="F133" s="2">
+      <c r="D133" s="4"/>
+      <c r="E133" s="4">
+        <v>10</v>
+      </c>
+      <c r="F133" s="4">
         <v>2</v>
       </c>
-      <c r="G133" s="2">
-        <v>2.15</v>
-      </c>
-      <c r="H133" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2"/>
-      <c r="V133" s="2"/>
-      <c r="W133" s="2"/>
+      <c r="G133" s="4">
+        <v>4.383</v>
+      </c>
+      <c r="H133" s="4">
+        <v>2.383</v>
+      </c>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="5"/>
+      <c r="Y133" s="5"/>
+      <c r="Z133" s="5"/>
+      <c r="AA133" s="5"/>
+      <c r="AB133" s="5"/>
+      <c r="AC133" s="5"/>
     </row>
     <row r="134" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C134" s="2">
@@ -7725,22 +7700,21 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F134" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G134" s="2">
-        <v>2.15</v>
+        <v>5.2329999999999997</v>
       </c>
       <c r="H134" s="2">
-        <v>1.583</v>
-      </c>
-      <c r="I134" s="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="I134" s="2">
+        <v>1</v>
+      </c>
       <c r="J134" s="2"/>
-      <c r="K134" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -7752,70 +7726,77 @@
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
-      <c r="W134" s="2"/>
+      <c r="W134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="X134" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y134" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA134" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="135" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C135" s="4">
-        <v>3004</v>
-      </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4">
-        <v>10</v>
-      </c>
-      <c r="F135" s="4">
-        <v>2</v>
-      </c>
-      <c r="G135" s="4">
-        <v>4.383</v>
-      </c>
-      <c r="H135" s="4">
-        <v>2.383</v>
-      </c>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="5"/>
-      <c r="Y135" s="5"/>
-      <c r="Z135" s="5"/>
-      <c r="AA135" s="5"/>
-      <c r="AB135" s="5"/>
-      <c r="AC135" s="5"/>
+      <c r="C135" s="2">
+        <v>3005</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2">
+        <v>1</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2"/>
+      <c r="V135" s="2"/>
+      <c r="W135" s="2"/>
     </row>
     <row r="136" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C136" s="2">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F136" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G136" s="2">
-        <v>5.2329999999999997</v>
+        <v>1.2665999999999999</v>
       </c>
       <c r="H136" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="I136" s="2">
-        <v>1</v>
-      </c>
+        <v>2.0666000000000002</v>
+      </c>
+      <c r="I136" s="2"/>
       <c r="J136" s="2"/>
+      <c r="K136" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -7827,41 +7808,29 @@
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
-      <c r="W136" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="X136" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y136" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA136" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W136" s="2"/>
     </row>
     <row r="137" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C137" s="2">
         <v>3005</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F137" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G137" s="2">
-        <v>0</v>
+        <v>2.3666</v>
       </c>
       <c r="H137" s="2">
-        <v>4.2</v>
+        <v>3.5666000000000002</v>
       </c>
       <c r="I137" s="2"/>
-      <c r="J137" s="2" t="s">
-        <v>299</v>
+      <c r="J137" s="2"/>
+      <c r="K137" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -7882,22 +7851,21 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F138" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G138" s="2">
-        <v>1.2665999999999999</v>
+        <v>4.0332999999999997</v>
       </c>
       <c r="H138" s="2">
-        <v>2.0666000000000002</v>
-      </c>
-      <c r="I138" s="2"/>
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="I138" s="2">
+        <v>1</v>
+      </c>
       <c r="J138" s="2"/>
-      <c r="K138" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -7909,63 +7877,75 @@
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
+      <c r="W138" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X138" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y138" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA138" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="139" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C139" s="2">
+      <c r="C139" s="4">
         <v>3005</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F139" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G139" s="2">
-        <v>2.3666</v>
+        <v>0</v>
       </c>
       <c r="H139" s="2">
-        <v>3.5666000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
-      <c r="K139" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
+      <c r="R139" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="S139" s="2">
+        <v>0</v>
+      </c>
       <c r="T139" s="2"/>
-      <c r="U139" s="2"/>
+      <c r="U139" s="2">
+        <v>0</v>
+      </c>
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
     <row r="140" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C140" s="2">
+      <c r="C140" s="4">
         <v>3005</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F140" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G140" s="2">
-        <v>4.0332999999999997</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="H140" s="2">
-        <v>0.76659999999999995</v>
-      </c>
-      <c r="I140" s="2">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
@@ -7973,23 +7953,18 @@
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
-      <c r="R140" s="2"/>
-      <c r="S140" s="2"/>
+      <c r="R140" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S140" s="2">
+        <v>9</v>
+      </c>
       <c r="T140" s="2"/>
-      <c r="U140" s="2"/>
+      <c r="U140" s="2">
+        <v>9</v>
+      </c>
       <c r="V140" s="2"/>
-      <c r="W140" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X140" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y140" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA140" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W140" s="2"/>
     </row>
     <row r="141" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C141" s="2">
@@ -8036,18 +8011,22 @@
         <v>2</v>
       </c>
       <c r="F142" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G142" s="2">
         <v>1</v>
       </c>
-      <c r="H142" s="2"/>
+      <c r="H142" s="2">
+        <v>0.433</v>
+      </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L142" s="2"/>
+      <c r="L142" s="2">
+        <v>1</v>
+      </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -8108,7 +8087,7 @@
         <v>4002</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E144" s="2">
         <v>1</v>
@@ -8151,13 +8130,15 @@
         <v>2</v>
       </c>
       <c r="G145" s="2">
-        <v>1.333</v>
-      </c>
-      <c r="H145" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H145" s="2">
+        <v>2.9670000000000001</v>
+      </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="1" t="s">
-        <v>98</v>
+        <v>322</v>
       </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
@@ -8181,16 +8162,19 @@
         <v>3</v>
       </c>
       <c r="F146" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G146" s="2">
-        <v>1.333</v>
-      </c>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" s="2">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="I146" s="2"/>
       <c r="J146" s="2"/>
+      <c r="K146" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -8202,41 +8186,27 @@
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
-      <c r="W146" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X146" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y146" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA146" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W146" s="2"/>
     </row>
     <row r="147" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C147" s="2">
-        <v>5001</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>4002</v>
+      </c>
+      <c r="D147" s="2"/>
       <c r="E147" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F147" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G147" s="2">
-        <v>0</v>
-      </c>
-      <c r="H147" s="2">
-        <v>1.167</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="H147" s="2"/>
       <c r="I147" s="2"/>
-      <c r="J147" s="2" t="s">
-        <v>97</v>
+      <c r="J147" s="2"/>
+      <c r="K147" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
@@ -8253,24 +8223,21 @@
     </row>
     <row r="148" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C148" s="2">
-        <v>5001</v>
+        <v>4002</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F148" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G148" s="2">
-        <v>0.55000000000000004</v>
+        <v>1.333</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
-      <c r="K148" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -8282,27 +8249,42 @@
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
-      <c r="W148" s="2"/>
+      <c r="W148" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X148" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y148" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA148" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="149" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C149" s="2">
         <v>5001</v>
       </c>
-      <c r="D149" s="2"/>
+      <c r="D149" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E149" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F149" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G149" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2">
-        <v>1</v>
-      </c>
-      <c r="J149" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H149" s="2">
+        <v>1.167</v>
+      </c>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -8314,41 +8296,27 @@
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
-      <c r="W149" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X149" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y149" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA149" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W149" s="2"/>
     </row>
     <row r="150" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C150" s="2">
-        <v>5002</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>5001</v>
+      </c>
+      <c r="D150" s="2"/>
       <c r="E150" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150" s="2">
-        <v>0</v>
-      </c>
-      <c r="H150" s="2">
-        <v>2.5670000000000002</v>
-      </c>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H150" s="2"/>
       <c r="I150" s="2"/>
-      <c r="J150" s="2" t="s">
-        <v>51</v>
+      <c r="J150" s="2"/>
+      <c r="K150" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
@@ -8365,24 +8333,23 @@
     </row>
     <row r="151" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C151" s="2">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F151" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G151" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
+      <c r="I151" s="2">
+        <v>1</v>
+      </c>
       <c r="J151" s="2"/>
-      <c r="K151" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -8394,27 +8361,41 @@
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
-      <c r="W151" s="2"/>
+      <c r="W151" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y151" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA151" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="152" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C152" s="2">
         <v>5002</v>
       </c>
-      <c r="D152" s="2"/>
+      <c r="D152" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="E152" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F152" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G152" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H152" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H152" s="2">
+        <v>2.5670000000000002</v>
+      </c>
       <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="1" t="s">
-        <v>100</v>
+      <c r="J152" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
@@ -8435,13 +8416,13 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F153" s="2">
         <v>2</v>
       </c>
       <c r="G153" s="2">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
@@ -8468,19 +8449,20 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F154" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G154" s="2">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H154" s="2"/>
-      <c r="I154" s="2">
-        <v>1</v>
-      </c>
+      <c r="I154" s="2"/>
       <c r="J154" s="2"/>
+      <c r="K154" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -8492,73 +8474,40 @@
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
       <c r="V154" s="2"/>
-      <c r="W154" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X154" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y154" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA154" s="1">
-        <v>800</v>
-      </c>
-      <c r="AB154" s="1">
-        <v>10</v>
-      </c>
-      <c r="AC154" s="1">
-        <v>8</v>
-      </c>
+      <c r="W154" s="2"/>
     </row>
     <row r="155" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C155" s="4">
+      <c r="C155" s="2">
         <v>5002</v>
       </c>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4">
-        <v>6</v>
-      </c>
-      <c r="F155" s="4">
-        <v>3</v>
-      </c>
-      <c r="G155" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4">
-        <v>1</v>
-      </c>
-      <c r="J155" s="4"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
-      <c r="S155" s="4"/>
-      <c r="T155" s="4"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
-      <c r="W155" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X155" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y155" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z155" s="5"/>
-      <c r="AA155" s="5">
-        <v>150</v>
-      </c>
-      <c r="AB155" s="5"/>
-      <c r="AC155" s="5">
+      <c r="D155" s="2"/>
+      <c r="E155" s="2">
+        <v>4</v>
+      </c>
+      <c r="F155" s="2">
         <v>2</v>
       </c>
+      <c r="G155" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2"/>
+      <c r="V155" s="2"/>
+      <c r="W155" s="2"/>
     </row>
     <row r="156" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C156" s="2">
@@ -8566,31 +8515,31 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F156" s="2">
         <v>3</v>
       </c>
       <c r="G156" s="2">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H156" s="2"/>
-      <c r="I156" s="4">
+      <c r="I156" s="2">
         <v>1</v>
       </c>
       <c r="J156" s="2"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
-      <c r="P156" s="4"/>
-      <c r="Q156" s="4"/>
-      <c r="R156" s="4"/>
-      <c r="S156" s="4"/>
-      <c r="T156" s="4"/>
-      <c r="U156" s="4"/>
-      <c r="V156" s="4"/>
-      <c r="W156" s="4" t="s">
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
+      <c r="U156" s="2"/>
+      <c r="V156" s="2"/>
+      <c r="W156" s="2" t="s">
         <v>69</v>
       </c>
       <c r="X156" s="1" t="s">
@@ -8599,95 +8548,128 @@
       <c r="Y156" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="AA156" s="1">
+        <v>800</v>
+      </c>
+      <c r="AB156" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC156" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="157" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C157" s="2">
-        <v>6001</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E157" s="2">
+      <c r="C157" s="4">
+        <v>5002</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4">
+        <v>6</v>
+      </c>
+      <c r="F157" s="4">
+        <v>3</v>
+      </c>
+      <c r="G157" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4">
         <v>1</v>
       </c>
-      <c r="F157" s="2">
-        <v>1</v>
-      </c>
-      <c r="G157" s="2">
-        <v>0</v>
-      </c>
-      <c r="H157" s="2">
-        <v>1.4670000000000001</v>
-      </c>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2"/>
-      <c r="V157" s="2"/>
-      <c r="W157" s="2"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="4"/>
+      <c r="S157" s="4"/>
+      <c r="T157" s="4"/>
+      <c r="U157" s="4"/>
+      <c r="V157" s="4"/>
+      <c r="W157" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X157" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y157" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z157" s="5"/>
+      <c r="AA157" s="5">
+        <v>150</v>
+      </c>
+      <c r="AB157" s="5"/>
+      <c r="AC157" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="158" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C158" s="2">
-        <v>6001</v>
+        <v>5002</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F158" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G158" s="2">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
+      <c r="I158" s="4">
+        <v>1</v>
+      </c>
       <c r="J158" s="2"/>
-      <c r="K158" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2"/>
-      <c r="V158" s="2"/>
-      <c r="W158" s="2"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="4"/>
+      <c r="S158" s="4"/>
+      <c r="T158" s="4"/>
+      <c r="U158" s="4"/>
+      <c r="V158" s="4"/>
+      <c r="W158" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X158" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y158" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="159" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C159" s="2">
         <v>6001</v>
       </c>
-      <c r="D159" s="2"/>
+      <c r="D159" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E159" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F159" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G159" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2">
-        <v>1</v>
-      </c>
-      <c r="J159" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -8699,41 +8681,27 @@
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
       <c r="V159" s="2"/>
-      <c r="W159" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X159" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y159" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA159" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W159" s="2"/>
     </row>
     <row r="160" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C160" s="2">
-        <v>6002</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>292</v>
-      </c>
+        <v>6001</v>
+      </c>
+      <c r="D160" s="2"/>
       <c r="E160" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F160" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G160" s="2">
-        <v>0</v>
-      </c>
-      <c r="H160" s="2">
-        <v>2.2669999999999999</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="H160" s="2"/>
       <c r="I160" s="2"/>
-      <c r="J160" s="2" t="s">
-        <v>68</v>
+      <c r="J160" s="2"/>
+      <c r="K160" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
@@ -8750,24 +8718,23 @@
     </row>
     <row r="161" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C161" s="2">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F161" s="2">
-        <v>2</v>
-      </c>
-      <c r="G161" s="4">
-        <v>1.1667000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0.65</v>
       </c>
       <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
+      <c r="I161" s="2">
+        <v>1</v>
+      </c>
       <c r="J161" s="2"/>
-      <c r="K161" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -8779,77 +8746,74 @@
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
       <c r="V161" s="2"/>
-      <c r="W161" s="2"/>
+      <c r="W161" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA161" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="162" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C162" s="4">
+      <c r="C162" s="2">
         <v>6002</v>
       </c>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4">
-        <v>3</v>
-      </c>
-      <c r="F162" s="4">
-        <v>3</v>
-      </c>
-      <c r="G162" s="4">
-        <v>1.1667000000000001</v>
-      </c>
-      <c r="H162" s="4"/>
-      <c r="I162" s="4">
+      <c r="D162" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E162" s="2">
         <v>1</v>
       </c>
-      <c r="J162" s="4"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="4"/>
-      <c r="P162" s="4"/>
-      <c r="Q162" s="4"/>
-      <c r="R162" s="4"/>
-      <c r="S162" s="4"/>
-      <c r="T162" s="4"/>
-      <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
-      <c r="W162" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X162" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y162" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z162" s="5"/>
-      <c r="AA162" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AB162" s="5"/>
-      <c r="AC162" s="5"/>
+      <c r="F162" s="2">
+        <v>1</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0</v>
+      </c>
+      <c r="H162" s="2">
+        <v>2.2669999999999999</v>
+      </c>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="2"/>
     </row>
     <row r="163" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C163" s="2">
-        <v>8002</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>293</v>
-      </c>
+        <v>6002</v>
+      </c>
+      <c r="D163" s="2"/>
       <c r="E163" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F163" s="2">
-        <v>1</v>
-      </c>
-      <c r="G163" s="2">
-        <v>0</v>
-      </c>
-      <c r="H163" s="2">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G163" s="4">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H163" s="2"/>
       <c r="I163" s="2"/>
-      <c r="J163" s="2" t="s">
-        <v>114</v>
+      <c r="J163" s="2"/>
+      <c r="K163" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
@@ -8865,30 +8829,26 @@
       <c r="W163" s="2"/>
     </row>
     <row r="164" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C164" s="2">
-        <v>8002</v>
+      <c r="C164" s="4">
+        <v>6002</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F164" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G164" s="4">
-        <v>0</v>
-      </c>
-      <c r="H164" s="4">
-        <v>4</v>
-      </c>
-      <c r="I164" s="4"/>
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4">
+        <v>1</v>
+      </c>
       <c r="J164" s="4"/>
-      <c r="K164" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L164" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="K164" s="5"/>
+      <c r="L164" s="4"/>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
@@ -8899,11 +8859,19 @@
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
-      <c r="W164" s="4"/>
-      <c r="X164" s="5"/>
-      <c r="Y164" s="5"/>
+      <c r="W164" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X164" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y164" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Z164" s="5"/>
-      <c r="AA164" s="5"/>
+      <c r="AA164" s="5">
+        <v>1000</v>
+      </c>
       <c r="AB164" s="5"/>
       <c r="AC164" s="5"/>
     </row>
@@ -8911,12 +8879,14 @@
       <c r="C165" s="2">
         <v>8002</v>
       </c>
-      <c r="D165" s="2"/>
+      <c r="D165" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="E165" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F165" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G165" s="2">
         <v>0</v>
@@ -8925,9 +8895,8 @@
         <v>4</v>
       </c>
       <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
-      <c r="K165" s="1" t="s">
-        <v>116</v>
+      <c r="J165" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
@@ -8946,36 +8915,44 @@
       <c r="C166" s="2">
         <v>8002</v>
       </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2">
+      <c r="D166" s="4"/>
+      <c r="E166" s="4">
+        <v>2</v>
+      </c>
+      <c r="F166" s="4">
+        <v>2</v>
+      </c>
+      <c r="G166" s="4">
+        <v>0</v>
+      </c>
+      <c r="H166" s="4">
         <v>4</v>
       </c>
-      <c r="F166" s="2">
-        <v>2</v>
-      </c>
-      <c r="G166" s="2">
-        <v>0</v>
-      </c>
-      <c r="H166" s="2">
-        <v>4</v>
-      </c>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
       <c r="K166" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2"/>
-      <c r="V166" s="2"/>
-      <c r="W166" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="4"/>
+      <c r="S166" s="4"/>
+      <c r="T166" s="4"/>
+      <c r="U166" s="4"/>
+      <c r="V166" s="4"/>
+      <c r="W166" s="4"/>
+      <c r="X166" s="5"/>
+      <c r="Y166" s="5"/>
+      <c r="Z166" s="5"/>
+      <c r="AA166" s="5"/>
+      <c r="AB166" s="5"/>
+      <c r="AC166" s="5"/>
     </row>
     <row r="167" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C167" s="2">
@@ -8983,7 +8960,7 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F167" s="2">
         <v>2</v>
@@ -8997,7 +8974,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="1" t="s">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
@@ -9018,21 +8995,22 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F168" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G168" s="2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H168" s="2">
-        <v>2</v>
-      </c>
-      <c r="I168" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I168" s="2"/>
       <c r="J168" s="2"/>
+      <c r="K168" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -9044,18 +9022,7 @@
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
       <c r="V168" s="2"/>
-      <c r="W168" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X168" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y168" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA168" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W168" s="2"/>
     </row>
     <row r="169" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C169" s="2">
@@ -9063,35 +9030,32 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F169" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G169" s="2">
         <v>0</v>
       </c>
       <c r="H169" s="2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
+      <c r="K169" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
-      <c r="R169" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="S169" s="2">
-        <v>0</v>
-      </c>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
       <c r="T169" s="2"/>
-      <c r="U169" s="2">
-        <v>0</v>
-      </c>
+      <c r="U169" s="2"/>
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
     </row>
@@ -9101,18 +9065,20 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F170" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G170" s="2">
-        <v>0.03</v>
+        <v>2.8</v>
       </c>
       <c r="H170" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="I170" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="I170" s="2">
+        <v>1</v>
+      </c>
       <c r="J170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
@@ -9120,18 +9086,23 @@
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
-      <c r="R170" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="S170" s="2">
-        <v>0</v>
-      </c>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
       <c r="T170" s="2"/>
-      <c r="U170" s="2">
-        <v>0</v>
-      </c>
+      <c r="U170" s="2"/>
       <c r="V170" s="2"/>
-      <c r="W170" s="2"/>
+      <c r="W170" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y170" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA170" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="171" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C171" s="2">
@@ -9139,16 +9110,16 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F171" s="2">
         <v>6</v>
       </c>
       <c r="G171" s="2">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H171" s="2">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
@@ -9159,88 +9130,91 @@
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
       <c r="R171" s="2" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="S171" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T171" s="2"/>
       <c r="U171" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
     </row>
     <row r="172" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C172" s="2">
-        <v>8003</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>271</v>
-      </c>
+        <v>8002</v>
+      </c>
+      <c r="D172" s="2"/>
       <c r="E172" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F172" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G172" s="2">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H172" s="2">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="I172" s="2"/>
-      <c r="J172" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="J172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
+      <c r="R172" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="S172" s="2">
+        <v>0</v>
+      </c>
       <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
+      <c r="U172" s="2">
+        <v>0</v>
+      </c>
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
     <row r="173" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C173" s="2">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F173" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G173" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H173" s="2">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
-      <c r="K173" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L173" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
+      <c r="R173" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S173" s="2">
+        <v>9</v>
+      </c>
       <c r="T173" s="2"/>
-      <c r="U173" s="2"/>
+      <c r="U173" s="2">
+        <v>9</v>
+      </c>
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
@@ -9248,23 +9222,24 @@
       <c r="C174" s="2">
         <v>8003</v>
       </c>
-      <c r="D174" s="2"/>
+      <c r="D174" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="E174" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F174" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G174" s="2">
         <v>0</v>
       </c>
       <c r="H174" s="2">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="1" t="s">
-        <v>283</v>
+      <c r="J174" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
@@ -9285,22 +9260,25 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F175" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G175" s="2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H175" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I175" s="2">
-        <v>1</v>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="I175" s="2"/>
       <c r="J175" s="2"/>
-      <c r="L175" s="2"/>
+      <c r="K175" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -9312,15 +9290,6 @@
       <c r="U175" s="2"/>
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
-      <c r="X175" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y175" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA175" s="1">
-        <v>1000</v>
-      </c>
     </row>
     <row r="176" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C176" s="2">
@@ -9328,35 +9297,32 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F176" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G176" s="2">
         <v>0</v>
       </c>
       <c r="H176" s="2">
-        <v>1.3660000000000001</v>
+        <v>1.833</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
+      <c r="K176" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
-      <c r="R176" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="S176" s="2">
-        <v>0</v>
-      </c>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
       <c r="T176" s="2"/>
-      <c r="U176" s="2">
-        <v>0</v>
-      </c>
+      <c r="U176" s="2"/>
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
     </row>
@@ -9366,18 +9332,20 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F177" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G177" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>1.3</v>
       </c>
       <c r="H177" s="2">
-        <v>2.766</v>
-      </c>
-      <c r="I177" s="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="I177" s="2">
+        <v>1</v>
+      </c>
       <c r="J177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
@@ -9385,89 +9353,95 @@
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
-      <c r="R177" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="S177" s="2">
-        <v>0</v>
-      </c>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
       <c r="T177" s="2"/>
-      <c r="U177" s="2">
-        <v>0</v>
-      </c>
+      <c r="U177" s="2"/>
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
+      <c r="X177" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y177" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA177" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="178" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C178" s="2">
-        <v>8005</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>8003</v>
+      </c>
+      <c r="D178" s="2"/>
       <c r="E178" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F178" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G178" s="2">
         <v>0</v>
       </c>
       <c r="H178" s="2">
-        <v>4</v>
+        <v>1.3660000000000001</v>
       </c>
       <c r="I178" s="2"/>
-      <c r="J178" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="J178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
-      <c r="R178" s="2"/>
-      <c r="S178" s="2"/>
+      <c r="R178" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S178" s="2">
+        <v>0</v>
+      </c>
       <c r="T178" s="2"/>
-      <c r="U178" s="2"/>
+      <c r="U178" s="2">
+        <v>0</v>
+      </c>
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
     <row r="179" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C179" s="2">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F179" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G179" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H179" s="2">
-        <v>4</v>
+        <v>2.766</v>
       </c>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
-      <c r="K179" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L179" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
       <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
-      <c r="S179" s="2"/>
+      <c r="R179" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S179" s="2">
+        <v>1</v>
+      </c>
       <c r="T179" s="2"/>
-      <c r="U179" s="2"/>
+      <c r="U179" s="2">
+        <v>1</v>
+      </c>
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
@@ -9475,12 +9449,14 @@
       <c r="C180" s="2">
         <v>8005</v>
       </c>
-      <c r="D180" s="2"/>
+      <c r="D180" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="E180" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F180" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G180" s="2">
         <v>0</v>
@@ -9489,9 +9465,8 @@
         <v>4</v>
       </c>
       <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="1" t="s">
-        <v>316</v>
+      <c r="J180" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
@@ -9512,7 +9487,7 @@
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F181" s="2">
         <v>2</v>
@@ -9526,9 +9501,11 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L181" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -9547,7 +9524,7 @@
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F182" s="2">
         <v>2</v>
@@ -9561,7 +9538,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
@@ -9582,21 +9559,22 @@
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F183" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G183" s="2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H183" s="2">
-        <v>2</v>
-      </c>
-      <c r="I183" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I183" s="2"/>
       <c r="J183" s="2"/>
+      <c r="K183" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -9608,18 +9586,7 @@
       <c r="T183" s="2"/>
       <c r="U183" s="2"/>
       <c r="V183" s="2"/>
-      <c r="W183" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X183" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y183" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA183" s="1">
-        <v>1000</v>
-      </c>
+      <c r="W183" s="2"/>
     </row>
     <row r="184" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C184" s="2">
@@ -9627,35 +9594,32 @@
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F184" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G184" s="2">
         <v>0</v>
       </c>
       <c r="H184" s="2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
+      <c r="K184" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
-      <c r="R184" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S184" s="2">
-        <v>0</v>
-      </c>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
       <c r="T184" s="2"/>
-      <c r="U184" s="2">
-        <v>0</v>
-      </c>
+      <c r="U184" s="2"/>
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
     </row>
@@ -9665,18 +9629,20 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F185" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G185" s="2">
-        <v>0.03</v>
+        <v>2.8</v>
       </c>
       <c r="H185" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="I185" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="I185" s="2">
+        <v>1</v>
+      </c>
       <c r="J185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
@@ -9684,18 +9650,23 @@
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
       <c r="Q185" s="2"/>
-      <c r="R185" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="S185" s="2">
-        <v>0</v>
-      </c>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
       <c r="T185" s="2"/>
-      <c r="U185" s="2">
-        <v>0</v>
-      </c>
+      <c r="U185" s="2"/>
       <c r="V185" s="2"/>
-      <c r="W185" s="2"/>
+      <c r="W185" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X185" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y185" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA185" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="186" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C186" s="2">
@@ -9703,16 +9674,16 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F186" s="2">
         <v>6</v>
       </c>
       <c r="G186" s="2">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H186" s="2">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
@@ -9723,70 +9694,72 @@
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
       <c r="R186" s="2" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="S186" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T186" s="2"/>
       <c r="U186" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
     <row r="187" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C187" s="2">
-        <v>8004</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>8005</v>
+      </c>
+      <c r="D187" s="2"/>
       <c r="E187" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F187" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G187" s="2">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H187" s="2">
-        <v>5.6333000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="I187" s="2"/>
-      <c r="J187" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="J187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
-      <c r="R187" s="2"/>
-      <c r="S187" s="2"/>
+      <c r="R187" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="S187" s="2">
+        <v>0</v>
+      </c>
       <c r="T187" s="2"/>
-      <c r="U187" s="2"/>
+      <c r="U187" s="2">
+        <v>0</v>
+      </c>
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
     <row r="188" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C188" s="2">
-        <v>8004</v>
+        <v>8005</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F188" s="2">
         <v>6</v>
       </c>
       <c r="G188" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H188" s="2">
-        <v>5.2332999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
@@ -9797,16 +9770,14 @@
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
       <c r="R188" s="2" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="S188" s="2">
-        <v>0</v>
-      </c>
-      <c r="T188" s="2" t="s">
-        <v>212</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="T188" s="2"/>
       <c r="U188" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
@@ -9815,48 +9786,37 @@
       <c r="C189" s="2">
         <v>8004</v>
       </c>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4">
-        <v>3</v>
-      </c>
-      <c r="F189" s="4">
-        <v>6</v>
-      </c>
-      <c r="G189" s="4">
-        <v>5.2332999999999998</v>
-      </c>
-      <c r="H189" s="4">
-        <v>3.5666000000000002</v>
-      </c>
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
-      <c r="K189" s="5"/>
-      <c r="L189" s="4"/>
-      <c r="M189" s="4"/>
-      <c r="N189" s="4"/>
-      <c r="O189" s="4"/>
-      <c r="P189" s="4"/>
-      <c r="Q189" s="4"/>
-      <c r="R189" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="S189" s="2">
-        <v>0</v>
-      </c>
-      <c r="T189" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="U189" s="2">
-        <v>0</v>
-      </c>
-      <c r="V189" s="4"/>
-      <c r="W189" s="4"/>
-      <c r="X189" s="5"/>
-      <c r="Y189" s="5"/>
-      <c r="Z189" s="5"/>
-      <c r="AA189" s="5"/>
-      <c r="AB189" s="5"/>
-      <c r="AC189" s="5"/>
+      <c r="D189" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E189" s="2">
+        <v>1</v>
+      </c>
+      <c r="F189" s="2">
+        <v>1</v>
+      </c>
+      <c r="G189" s="2">
+        <v>0</v>
+      </c>
+      <c r="H189" s="2">
+        <v>5.6333000000000002</v>
+      </c>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2"/>
+      <c r="V189" s="2"/>
+      <c r="W189" s="2"/>
     </row>
     <row r="190" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C190" s="2">
@@ -9864,32 +9824,37 @@
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F190" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G190" s="2">
         <v>0</v>
       </c>
       <c r="H190" s="2">
-        <v>10.833</v>
+        <v>5.2332999999999998</v>
       </c>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
-      <c r="K190" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
       <c r="Q190" s="2"/>
-      <c r="R190" s="2"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
-      <c r="U190" s="2"/>
+      <c r="R190" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S190" s="2">
+        <v>0</v>
+      </c>
+      <c r="T190" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="U190" s="2">
+        <v>0</v>
+      </c>
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
@@ -9897,36 +9862,48 @@
       <c r="C191" s="2">
         <v>8004</v>
       </c>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2">
-        <v>5</v>
-      </c>
-      <c r="F191" s="2">
-        <v>2</v>
-      </c>
-      <c r="G191" s="2">
-        <v>5.1665999999999999</v>
-      </c>
-      <c r="H191" s="2">
-        <v>5</v>
-      </c>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
-      <c r="K191" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="2"/>
-      <c r="R191" s="2"/>
-      <c r="S191" s="2"/>
-      <c r="T191" s="2"/>
-      <c r="U191" s="2"/>
-      <c r="V191" s="2"/>
-      <c r="W191" s="2"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4">
+        <v>3</v>
+      </c>
+      <c r="F191" s="4">
+        <v>6</v>
+      </c>
+      <c r="G191" s="4">
+        <v>5.2332999999999998</v>
+      </c>
+      <c r="H191" s="4">
+        <v>3.5666000000000002</v>
+      </c>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
+      <c r="R191" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="S191" s="2">
+        <v>0</v>
+      </c>
+      <c r="T191" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="U191" s="2">
+        <v>0</v>
+      </c>
+      <c r="V191" s="4"/>
+      <c r="W191" s="4"/>
+      <c r="X191" s="5"/>
+      <c r="Y191" s="5"/>
+      <c r="Z191" s="5"/>
+      <c r="AA191" s="5"/>
+      <c r="AB191" s="5"/>
+      <c r="AC191" s="5"/>
     </row>
     <row r="192" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C192" s="2">
@@ -9934,21 +9911,21 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F192" s="2">
         <v>2</v>
       </c>
       <c r="G192" s="2">
-        <v>5.3666</v>
+        <v>0</v>
       </c>
       <c r="H192" s="2">
-        <v>1.6659999999999999</v>
+        <v>10.833</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
@@ -9969,13 +9946,13 @@
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F193" s="2">
         <v>2</v>
       </c>
       <c r="G193" s="2">
-        <v>5.3666</v>
+        <v>5.1665999999999999</v>
       </c>
       <c r="H193" s="2">
         <v>5</v>
@@ -9983,7 +9960,7 @@
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
@@ -10004,19 +9981,22 @@
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F194" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G194" s="2">
-        <v>5.3666999999999998</v>
+        <v>5.3666</v>
       </c>
       <c r="H194" s="2">
-        <v>0.1333000000000002</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
+      <c r="K194" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -10028,9 +10008,7 @@
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
       <c r="V194" s="2"/>
-      <c r="W194" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="W194" s="2"/>
     </row>
     <row r="195" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C195" s="2">
@@ -10038,19 +10016,22 @@
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F195" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G195" s="2">
-        <v>5.5</v>
+        <v>5.3666</v>
       </c>
       <c r="H195" s="2">
-        <v>0.16669999999999999</v>
+        <v>5</v>
       </c>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
+      <c r="K195" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -10062,9 +10043,7 @@
       <c r="T195" s="2"/>
       <c r="U195" s="2"/>
       <c r="V195" s="2"/>
-      <c r="W195" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="W195" s="2"/>
     </row>
     <row r="196" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C196" s="2">
@@ -10072,16 +10051,16 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F196" s="2">
         <v>1</v>
       </c>
       <c r="G196" s="2">
-        <v>5.6669999999999998</v>
+        <v>5.3666999999999998</v>
       </c>
       <c r="H196" s="2">
-        <v>1.2</v>
+        <v>0.1333000000000002</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
@@ -10097,31 +10076,27 @@
       <c r="U196" s="2"/>
       <c r="V196" s="2"/>
       <c r="W196" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C197" s="2">
         <v>8004</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="D197" s="2"/>
       <c r="E197" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F197" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G197" s="2">
-        <v>6.867</v>
+        <v>5.5</v>
       </c>
       <c r="H197" s="2">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="I197" s="2">
-        <v>1</v>
-      </c>
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
@@ -10135,129 +10110,129 @@
       <c r="U197" s="2"/>
       <c r="V197" s="2"/>
       <c r="W197" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y197" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA197" s="1">
-        <v>1000</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C198" s="2">
         <v>8004</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E198" s="4">
-        <v>12</v>
-      </c>
-      <c r="F198" s="4">
+      <c r="D198" s="2"/>
+      <c r="E198" s="2">
+        <v>10</v>
+      </c>
+      <c r="F198" s="2">
         <v>1</v>
       </c>
       <c r="G198" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="H198" s="4">
-        <v>2</v>
-      </c>
-      <c r="I198" s="4"/>
-      <c r="J198" s="4"/>
-      <c r="K198" s="5"/>
-      <c r="L198" s="4"/>
-      <c r="M198" s="4"/>
-      <c r="N198" s="4"/>
-      <c r="O198" s="4"/>
-      <c r="P198" s="4"/>
-      <c r="Q198" s="4"/>
-      <c r="R198" s="4"/>
-      <c r="S198" s="4"/>
-      <c r="T198" s="4"/>
-      <c r="U198" s="4"/>
-      <c r="V198" s="4"/>
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="H198" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2"/>
+      <c r="V198" s="2"/>
       <c r="W198" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="X198" s="5"/>
-      <c r="Y198" s="5"/>
-      <c r="Z198" s="5"/>
-      <c r="AA198" s="5"/>
-      <c r="AB198" s="5"/>
-      <c r="AC198" s="5"/>
+        <v>219</v>
+      </c>
     </row>
     <row r="199" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C199" s="2">
         <v>8004</v>
       </c>
-      <c r="D199" s="2"/>
+      <c r="D199" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="E199" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F199" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G199" s="2">
-        <v>0</v>
+        <v>6.867</v>
       </c>
       <c r="H199" s="2">
-        <v>12</v>
-      </c>
-      <c r="I199" s="2"/>
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="I199" s="2">
+        <v>1</v>
+      </c>
       <c r="J199" s="2"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
-      <c r="P199" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q199" s="24" t="s">
-        <v>222</v>
-      </c>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
       <c r="U199" s="2"/>
       <c r="V199" s="2"/>
-      <c r="W199" s="2"/>
+      <c r="W199" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y199" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA199" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="200" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C200" s="2">
         <v>8004</v>
       </c>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2">
-        <v>14</v>
-      </c>
-      <c r="F200" s="2">
-        <v>7</v>
+      <c r="D200" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E200" s="4">
+        <v>12</v>
+      </c>
+      <c r="F200" s="4">
+        <v>1</v>
       </c>
       <c r="G200" s="2">
-        <v>0</v>
-      </c>
-      <c r="H200" s="2">
-        <v>12</v>
-      </c>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="H200" s="4">
         <v>2</v>
       </c>
-      <c r="Q200" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="R200" s="2"/>
-      <c r="S200" s="2"/>
-      <c r="T200" s="2"/>
-      <c r="U200" s="2"/>
-      <c r="V200" s="2"/>
-      <c r="W200" s="2"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="4"/>
+      <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
+      <c r="U200" s="4"/>
+      <c r="V200" s="4"/>
+      <c r="W200" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="X200" s="5"/>
+      <c r="Y200" s="5"/>
+      <c r="Z200" s="5"/>
+      <c r="AA200" s="5"/>
+      <c r="AB200" s="5"/>
+      <c r="AC200" s="5"/>
     </row>
     <row r="201" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C201" s="2">
@@ -10265,7 +10240,7 @@
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F201" s="2">
         <v>7</v>
@@ -10283,10 +10258,10 @@
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
       <c r="P201" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q201" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R201" s="2"/>
       <c r="S201" s="2"/>
@@ -10301,7 +10276,7 @@
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F202" s="2">
         <v>7</v>
@@ -10312,31 +10287,24 @@
       <c r="H202" s="2">
         <v>12</v>
       </c>
-      <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
-      <c r="K202" s="5"/>
-      <c r="L202" s="4"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
-      <c r="O202" s="4"/>
-      <c r="P202" s="4">
-        <v>4</v>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2">
+        <v>2</v>
       </c>
       <c r="Q202" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="R202" s="4"/>
-      <c r="S202" s="4"/>
-      <c r="T202" s="4"/>
-      <c r="U202" s="4"/>
-      <c r="V202" s="4"/>
-      <c r="W202" s="4"/>
-      <c r="X202" s="5"/>
-      <c r="Y202" s="5"/>
-      <c r="Z202" s="5"/>
-      <c r="AA202" s="5"/>
-      <c r="AB202" s="5"/>
-      <c r="AC202" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2"/>
+      <c r="V202" s="2"/>
+      <c r="W202" s="2"/>
     </row>
     <row r="203" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C203" s="2">
@@ -10344,7 +10312,7 @@
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F203" s="2">
         <v>7</v>
@@ -10362,10 +10330,10 @@
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
       <c r="P203" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q203" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R203" s="2"/>
       <c r="S203" s="2"/>
@@ -10380,7 +10348,7 @@
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F204" s="2">
         <v>7</v>
@@ -10391,24 +10359,31 @@
       <c r="H204" s="2">
         <v>12</v>
       </c>
-      <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
-      <c r="O204" s="2"/>
-      <c r="P204" s="2">
-        <v>6</v>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4">
+        <v>4</v>
       </c>
       <c r="Q204" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="R204" s="2"/>
-      <c r="S204" s="2"/>
-      <c r="T204" s="2"/>
-      <c r="U204" s="2"/>
-      <c r="V204" s="2"/>
-      <c r="W204" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+      <c r="U204" s="4"/>
+      <c r="V204" s="4"/>
+      <c r="W204" s="4"/>
+      <c r="X204" s="5"/>
+      <c r="Y204" s="5"/>
+      <c r="Z204" s="5"/>
+      <c r="AA204" s="5"/>
+      <c r="AB204" s="5"/>
+      <c r="AC204" s="5"/>
     </row>
     <row r="205" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C205" s="2">
@@ -10416,29 +10391,29 @@
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F205" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G205" s="2">
         <v>0</v>
       </c>
       <c r="H205" s="2">
-        <v>5.4666666666666668</v>
+        <v>12</v>
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
-      <c r="N205" s="2">
-        <v>1</v>
-      </c>
-      <c r="O205" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="24"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q205" s="24" t="s">
+        <v>225</v>
+      </c>
       <c r="R205" s="2"/>
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
@@ -10452,29 +10427,29 @@
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F206" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G206" s="2">
         <v>0</v>
       </c>
       <c r="H206" s="2">
-        <v>5.4666666666666668</v>
+        <v>12</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
-      <c r="N206" s="2">
-        <v>2</v>
-      </c>
-      <c r="O206" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="P206" s="2"/>
-      <c r="Q206" s="24"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q206" s="24" t="s">
+        <v>226</v>
+      </c>
       <c r="R206" s="2"/>
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
@@ -10488,7 +10463,7 @@
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F207" s="2">
         <v>5</v>
@@ -10504,10 +10479,10 @@
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O207" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" s="24"/>
@@ -10522,9 +10497,9 @@
       <c r="C208" s="2">
         <v>8004</v>
       </c>
-      <c r="D208" s="4"/>
+      <c r="D208" s="2"/>
       <c r="E208" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F208" s="2">
         <v>5</v>
@@ -10535,31 +10510,24 @@
       <c r="H208" s="2">
         <v>5.4666666666666668</v>
       </c>
-      <c r="I208" s="4"/>
-      <c r="J208" s="4"/>
-      <c r="K208" s="5"/>
-      <c r="L208" s="4"/>
-      <c r="M208" s="4"/>
-      <c r="N208" s="4">
-        <v>4</v>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2">
+        <v>2</v>
       </c>
       <c r="O208" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="P208" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="P208" s="2"/>
       <c r="Q208" s="24"/>
-      <c r="R208" s="4"/>
-      <c r="S208" s="4"/>
-      <c r="T208" s="4"/>
-      <c r="U208" s="4"/>
-      <c r="V208" s="4"/>
-      <c r="W208" s="4"/>
-      <c r="X208" s="5"/>
-      <c r="Y208" s="5"/>
-      <c r="Z208" s="5"/>
-      <c r="AA208" s="5"/>
-      <c r="AB208" s="5"/>
-      <c r="AC208" s="5"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2"/>
+      <c r="V208" s="2"/>
+      <c r="W208" s="2"/>
     </row>
     <row r="209" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C209" s="2">
@@ -10567,7 +10535,7 @@
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F209" s="2">
         <v>5</v>
@@ -10583,10 +10551,10 @@
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
       <c r="N209" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O209" s="24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P209" s="2"/>
       <c r="Q209" s="24"/>
@@ -10601,9 +10569,9 @@
       <c r="C210" s="2">
         <v>8004</v>
       </c>
-      <c r="D210" s="2"/>
+      <c r="D210" s="4"/>
       <c r="E210" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F210" s="2">
         <v>5</v>
@@ -10614,24 +10582,31 @@
       <c r="H210" s="2">
         <v>5.4666666666666668</v>
       </c>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2">
-        <v>6</v>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4">
+        <v>4</v>
       </c>
       <c r="O210" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="P210" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="P210" s="4"/>
       <c r="Q210" s="24"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2"/>
-      <c r="V210" s="2"/>
-      <c r="W210" s="2"/>
+      <c r="R210" s="4"/>
+      <c r="S210" s="4"/>
+      <c r="T210" s="4"/>
+      <c r="U210" s="4"/>
+      <c r="V210" s="4"/>
+      <c r="W210" s="4"/>
+      <c r="X210" s="5"/>
+      <c r="Y210" s="5"/>
+      <c r="Z210" s="5"/>
+      <c r="AA210" s="5"/>
+      <c r="AB210" s="5"/>
+      <c r="AC210" s="5"/>
     </row>
     <row r="211" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C211" s="2">
@@ -10639,30 +10614,29 @@
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F211" s="2">
         <v>5</v>
       </c>
       <c r="G211" s="2">
+        <v>0</v>
+      </c>
+      <c r="H211" s="2">
         <v>5.4666666666666668</v>
-      </c>
-      <c r="H211" s="2">
-        <f>171/30</f>
-        <v>5.7</v>
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
       <c r="N211" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O211" s="24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
+      <c r="Q211" s="24"/>
       <c r="R211" s="2"/>
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
@@ -10676,30 +10650,29 @@
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F212" s="2">
         <v>5</v>
       </c>
       <c r="G212" s="2">
+        <v>0</v>
+      </c>
+      <c r="H212" s="2">
         <v>5.4666666666666668</v>
-      </c>
-      <c r="H212" s="2">
-        <f t="shared" ref="H212:H216" si="0">171/30</f>
-        <v>5.7</v>
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
       <c r="N212" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O212" s="24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
+      <c r="Q212" s="24"/>
       <c r="R212" s="2"/>
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
@@ -10713,7 +10686,7 @@
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F213" s="2">
         <v>5</v>
@@ -10722,7 +10695,7 @@
         <v>5.4666666666666668</v>
       </c>
       <c r="H213" s="2">
-        <f t="shared" si="0"/>
+        <f>171/30</f>
         <v>5.7</v>
       </c>
       <c r="I213" s="2"/>
@@ -10730,10 +10703,10 @@
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
       <c r="N213" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O213" s="24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P213" s="2"/>
       <c r="Q213" s="2"/>
@@ -10750,7 +10723,7 @@
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F214" s="2">
         <v>5</v>
@@ -10759,7 +10732,7 @@
         <v>5.4666666666666668</v>
       </c>
       <c r="H214" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H214:H218" si="0">171/30</f>
         <v>5.7</v>
       </c>
       <c r="I214" s="2"/>
@@ -10767,10 +10740,10 @@
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
       <c r="N214" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O214" s="24" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P214" s="2"/>
       <c r="Q214" s="2"/>
@@ -10787,7 +10760,7 @@
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F215" s="2">
         <v>5</v>
@@ -10804,10 +10777,10 @@
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
       <c r="N215" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O215" s="24" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P215" s="2"/>
       <c r="Q215" s="2"/>
@@ -10824,7 +10797,7 @@
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F216" s="2">
         <v>5</v>
@@ -10841,10 +10814,10 @@
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
       <c r="N216" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O216" s="24" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P216" s="2"/>
       <c r="Q216" s="2"/>
@@ -10859,44 +10832,38 @@
       <c r="C217" s="2">
         <v>8004</v>
       </c>
-      <c r="D217" s="4"/>
+      <c r="D217" s="2"/>
       <c r="E217" s="2">
-        <v>31</v>
-      </c>
-      <c r="F217" s="4">
+        <v>29</v>
+      </c>
+      <c r="F217" s="2">
         <v>5</v>
       </c>
-      <c r="G217" s="4">
+      <c r="G217" s="2">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="H217" s="2">
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
-      <c r="H217" s="4">
-        <v>12</v>
-      </c>
-      <c r="I217" s="4"/>
-      <c r="J217" s="4"/>
-      <c r="K217" s="5"/>
-      <c r="L217" s="4"/>
-      <c r="M217" s="4"/>
-      <c r="N217" s="4">
-        <v>1</v>
-      </c>
-      <c r="O217" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="P217" s="4"/>
-      <c r="Q217" s="4"/>
-      <c r="R217" s="4"/>
-      <c r="S217" s="4"/>
-      <c r="T217" s="4"/>
-      <c r="U217" s="4"/>
-      <c r="V217" s="4"/>
-      <c r="W217" s="4"/>
-      <c r="X217" s="5"/>
-      <c r="Y217" s="5"/>
-      <c r="Z217" s="5"/>
-      <c r="AA217" s="5"/>
-      <c r="AB217" s="5"/>
-      <c r="AC217" s="5"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2">
+        <v>5</v>
+      </c>
+      <c r="O217" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
+      <c r="U217" s="2"/>
+      <c r="V217" s="2"/>
+      <c r="W217" s="2"/>
     </row>
     <row r="218" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C218" s="2">
@@ -10904,26 +10871,27 @@
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F218" s="2">
         <v>5</v>
       </c>
       <c r="G218" s="2">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="H218" s="2">
+        <f t="shared" si="0"/>
         <v>5.7</v>
-      </c>
-      <c r="H218" s="4">
-        <v>12</v>
       </c>
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
       <c r="N218" s="2">
-        <v>2</v>
-      </c>
-      <c r="O218" s="2" t="s">
-        <v>238</v>
+        <v>6</v>
+      </c>
+      <c r="O218" s="24" t="s">
+        <v>247</v>
       </c>
       <c r="P218" s="2"/>
       <c r="Q218" s="2"/>
@@ -10938,37 +10906,44 @@
       <c r="C219" s="2">
         <v>8004</v>
       </c>
-      <c r="D219" s="2"/>
+      <c r="D219" s="4"/>
       <c r="E219" s="2">
-        <v>33</v>
-      </c>
-      <c r="F219" s="2">
+        <v>31</v>
+      </c>
+      <c r="F219" s="4">
         <v>5</v>
       </c>
-      <c r="G219" s="2">
+      <c r="G219" s="4">
         <v>5.7</v>
       </c>
       <c r="H219" s="4">
         <v>12</v>
       </c>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
-      <c r="N219" s="2">
-        <v>3</v>
-      </c>
-      <c r="O219" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="P219" s="2"/>
-      <c r="Q219" s="2"/>
-      <c r="R219" s="2"/>
-      <c r="S219" s="2"/>
-      <c r="T219" s="2"/>
-      <c r="U219" s="2"/>
-      <c r="V219" s="2"/>
-      <c r="W219" s="2"/>
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4">
+        <v>1</v>
+      </c>
+      <c r="O219" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="4"/>
+      <c r="S219" s="4"/>
+      <c r="T219" s="4"/>
+      <c r="U219" s="4"/>
+      <c r="V219" s="4"/>
+      <c r="W219" s="4"/>
+      <c r="X219" s="5"/>
+      <c r="Y219" s="5"/>
+      <c r="Z219" s="5"/>
+      <c r="AA219" s="5"/>
+      <c r="AB219" s="5"/>
+      <c r="AC219" s="5"/>
     </row>
     <row r="220" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C220" s="2">
@@ -10976,7 +10951,7 @@
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F220" s="2">
         <v>5</v>
@@ -10992,10 +10967,10 @@
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
       <c r="N220" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P220" s="2"/>
       <c r="Q220" s="2"/>
@@ -11012,7 +10987,7 @@
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F221" s="2">
         <v>5</v>
@@ -11028,10 +11003,10 @@
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O221" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P221" s="2"/>
       <c r="Q221" s="2"/>
@@ -11048,7 +11023,7 @@
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F222" s="2">
         <v>5</v>
@@ -11064,10 +11039,10 @@
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P222" s="2"/>
       <c r="Q222" s="2"/>
@@ -11080,29 +11055,31 @@
     </row>
     <row r="223" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C223" s="2">
-        <v>9002</v>
+        <v>8004</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F223" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G223" s="2">
-        <v>0</v>
-      </c>
-      <c r="H223" s="2">
-        <v>2.5</v>
+        <v>5.7</v>
+      </c>
+      <c r="H223" s="4">
+        <v>12</v>
       </c>
       <c r="I223" s="2"/>
-      <c r="J223" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="J223" s="2"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
+      <c r="N223" s="2">
+        <v>5</v>
+      </c>
+      <c r="O223" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="P223" s="2"/>
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
@@ -11114,29 +11091,31 @@
     </row>
     <row r="224" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C224" s="2">
-        <v>9002</v>
+        <v>8004</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F224" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G224" s="2">
-        <v>1.6667000000000001</v>
-      </c>
-      <c r="H224" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I224" s="2">
-        <v>1</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="H224" s="4">
+        <v>12</v>
+      </c>
+      <c r="I224" s="2"/>
       <c r="J224" s="2"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
+      <c r="N224" s="2">
+        <v>6</v>
+      </c>
+      <c r="O224" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="P224" s="2"/>
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
@@ -11144,28 +11123,29 @@
       <c r="T224" s="2"/>
       <c r="U224" s="2"/>
       <c r="V224" s="2"/>
-      <c r="W224" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X224" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y224" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA224" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="225" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C225" s="2"/>
+      <c r="W224" s="2"/>
+    </row>
+    <row r="225" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C225" s="2">
+        <v>9002</v>
+      </c>
       <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
+      <c r="E225" s="2">
+        <v>1</v>
+      </c>
+      <c r="F225" s="2">
+        <v>1</v>
+      </c>
+      <c r="G225" s="2">
+        <v>0</v>
+      </c>
+      <c r="H225" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
+      <c r="J225" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -11179,15 +11159,28 @@
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
     </row>
-    <row r="226" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C226" s="2"/>
+    <row r="226" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C226" s="2">
+        <v>9002</v>
+      </c>
       <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
+      <c r="E226" s="2">
+        <v>2</v>
+      </c>
+      <c r="F226" s="2">
+        <v>2</v>
+      </c>
+      <c r="G226" s="2">
+        <v>0</v>
+      </c>
+      <c r="H226" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
+      <c r="J226" s="30"/>
+      <c r="K226" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
@@ -11201,15 +11194,28 @@
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
     </row>
-    <row r="227" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C227" s="2"/>
+    <row r="227" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C227" s="2">
+        <v>9002</v>
+      </c>
       <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
+      <c r="E227" s="2">
+        <v>3</v>
+      </c>
+      <c r="F227" s="2">
+        <v>2</v>
+      </c>
+      <c r="G227" s="2">
+        <v>0</v>
+      </c>
+      <c r="H227" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
+      <c r="J227" s="30"/>
+      <c r="K227" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -11223,15 +11229,26 @@
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
     </row>
-    <row r="228" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C228" s="2"/>
+    <row r="228" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C228" s="2">
+        <v>9002</v>
+      </c>
       <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
+      <c r="E228" s="2">
+        <v>4</v>
+      </c>
+      <c r="F228" s="2">
+        <v>8</v>
+      </c>
+      <c r="G228" s="2">
+        <v>0.6</v>
+      </c>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
+      <c r="K228" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -11245,12 +11262,20 @@
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
     </row>
-    <row r="229" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C229" s="2"/>
+    <row r="229" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C229" s="2">
+        <v>9002</v>
+      </c>
       <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
+      <c r="E229" s="2">
+        <v>5</v>
+      </c>
+      <c r="F229" s="2">
+        <v>3</v>
+      </c>
+      <c r="G229" s="2">
+        <v>1.2666999999999999</v>
+      </c>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
@@ -11265,17 +11290,40 @@
       <c r="T229" s="2"/>
       <c r="U229" s="2"/>
       <c r="V229" s="2"/>
-      <c r="W229" s="2"/>
-    </row>
-    <row r="230" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C230" s="2"/>
+      <c r="W229" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X229" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y229" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA229" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="230" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C230" s="2">
+        <v>9003</v>
+      </c>
       <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
+      <c r="E230" s="2">
+        <v>1</v>
+      </c>
+      <c r="F230" s="2">
+        <v>1</v>
+      </c>
+      <c r="G230" s="2">
+        <v>0</v>
+      </c>
+      <c r="H230" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
+      <c r="J230" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
@@ -11289,15 +11337,28 @@
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
     </row>
-    <row r="231" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C231" s="2"/>
+    <row r="231" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C231" s="2">
+        <v>9003</v>
+      </c>
       <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
+      <c r="E231" s="2">
+        <v>2</v>
+      </c>
+      <c r="F231" s="2">
+        <v>2</v>
+      </c>
+      <c r="G231" s="2">
+        <v>0</v>
+      </c>
+      <c r="H231" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
+      <c r="J231" s="30"/>
+      <c r="K231" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -11311,15 +11372,28 @@
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
     </row>
-    <row r="232" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C232" s="2"/>
+    <row r="232" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C232" s="2">
+        <v>9003</v>
+      </c>
       <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
+      <c r="E232" s="2">
+        <v>3</v>
+      </c>
+      <c r="F232" s="2">
+        <v>2</v>
+      </c>
+      <c r="G232" s="2">
+        <v>0</v>
+      </c>
+      <c r="H232" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
+      <c r="J232" s="30"/>
+      <c r="K232" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
@@ -11333,12 +11407,20 @@
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
     </row>
-    <row r="233" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C233" s="2"/>
+    <row r="233" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C233" s="2">
+        <v>9003</v>
+      </c>
       <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
+      <c r="E233" s="2">
+        <v>4</v>
+      </c>
+      <c r="F233" s="2">
+        <v>3</v>
+      </c>
+      <c r="G233" s="2">
+        <v>1.2666999999999999</v>
+      </c>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
@@ -11355,7 +11437,7 @@
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
     </row>
-    <row r="234" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -11377,7 +11459,7 @@
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
     </row>
-    <row r="235" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -11399,7 +11481,7 @@
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
     </row>
-    <row r="236" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -11421,7 +11503,7 @@
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
     </row>
-    <row r="237" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -11443,7 +11525,7 @@
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
     </row>
-    <row r="238" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -11465,7 +11547,7 @@
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
     </row>
-    <row r="239" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -11487,34 +11569,78 @@
       <c r="V239" s="2"/>
       <c r="W239" s="2"/>
     </row>
-    <row r="240" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
-      <c r="G240" s="4"/>
-      <c r="H240" s="4"/>
-      <c r="I240" s="4"/>
-      <c r="J240" s="4"/>
-      <c r="K240" s="5"/>
-      <c r="L240" s="4"/>
-      <c r="M240" s="4"/>
-      <c r="N240" s="4"/>
-      <c r="O240" s="4"/>
-      <c r="P240" s="4"/>
-      <c r="Q240" s="4"/>
-      <c r="R240" s="4"/>
-      <c r="S240" s="4"/>
-      <c r="T240" s="4"/>
-      <c r="U240" s="4"/>
-      <c r="V240" s="4"/>
-      <c r="W240" s="4"/>
-      <c r="X240" s="5"/>
-      <c r="Y240" s="5"/>
-      <c r="Z240" s="5"/>
-      <c r="AA240" s="5"/>
-      <c r="AB240" s="5"/>
-      <c r="AC240" s="5"/>
+    <row r="240" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="2"/>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" s="2"/>
+      <c r="R240" s="2"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
+      <c r="U240" s="2"/>
+      <c r="V240" s="2"/>
+      <c r="W240" s="2"/>
+    </row>
+    <row r="241" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" s="2"/>
+      <c r="R241" s="2"/>
+      <c r="S241" s="2"/>
+      <c r="T241" s="2"/>
+      <c r="U241" s="2"/>
+      <c r="V241" s="2"/>
+      <c r="W241" s="2"/>
+    </row>
+    <row r="242" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
+      <c r="I242" s="4"/>
+      <c r="J242" s="4"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="4"/>
+      <c r="M242" s="4"/>
+      <c r="N242" s="4"/>
+      <c r="O242" s="4"/>
+      <c r="P242" s="4"/>
+      <c r="Q242" s="4"/>
+      <c r="R242" s="4"/>
+      <c r="S242" s="4"/>
+      <c r="T242" s="4"/>
+      <c r="U242" s="4"/>
+      <c r="V242" s="4"/>
+      <c r="W242" s="4"/>
+      <c r="X242" s="5"/>
+      <c r="Y242" s="5"/>
+      <c r="Z242" s="5"/>
+      <c r="AA242" s="5"/>
+      <c r="AB242" s="5"/>
+      <c r="AC242" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
